--- a/03-rdd/caching-worksheet.xlsx
+++ b/03-rdd/caching-worksheet.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sujee/ElephantScale/spark-labs/03-rdd/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2080" windowWidth="32240" windowHeight="16980" tabRatio="500"/>
+    <workbookView windowWidth="19380" windowHeight="11220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>Datset</t>
+  </si>
   <si>
     <t xml:space="preserve">data size </t>
   </si>
@@ -35,16 +28,22 @@
     <t>size in memory</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;-- 'Storage' tab </t>
+  </si>
+  <si>
     <t>overhead</t>
   </si>
   <si>
-    <t>after cache 1</t>
+    <t>in Spark UI 4040</t>
   </si>
   <si>
-    <t>after cache 2</t>
+    <t>run</t>
   </si>
   <si>
-    <t>after cache 3</t>
+    <t>time (secs)</t>
+  </si>
+  <si>
+    <t>&lt;-- get from spark shell  UI</t>
   </si>
   <si>
     <t>before cache 1</t>
@@ -56,56 +55,31 @@
     <t>before cache 3</t>
   </si>
   <si>
-    <t>run</t>
+    <t>after cache 1</t>
   </si>
   <si>
-    <t>time (secs)</t>
+    <t>after cache 2</t>
   </si>
   <si>
-    <t>&lt;-- note from spark shell logs in console</t>
-  </si>
-  <si>
-    <t>RDD</t>
-  </si>
-  <si>
-    <t>DataSet</t>
-  </si>
-  <si>
-    <t>Datset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-- 'Storage' tab </t>
-  </si>
-  <si>
-    <t>in Spark UI 4040</t>
+    <t>after cache 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,10 +88,146 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,18 +236,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,37 +441,302 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+  <cellStyles count="47">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
+    <cellStyle name="Percent" xfId="46" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -187,9 +748,9 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:date1904 val="false"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -202,11 +763,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -222,11 +783,12 @@
               <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="false"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -234,44 +796,24 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="false"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="false"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RDD</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -285,7 +827,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="false"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -295,13 +837,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -313,20 +855,20 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="true"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
+                <c15:showLeaderLines val="true"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -346,41 +888,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DataSet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$C$17</c:f>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -389,12 +897,12 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
@@ -406,7 +914,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -425,11 +933,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -441,22 +949,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1984099712"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1984099712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -472,6 +979,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -483,11 +991,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -499,7 +1007,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1984098352"/>
@@ -517,7 +1024,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="false"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -526,11 +1033,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -542,13 +1049,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:showDLblsOverMax val="false"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -570,9 +1076,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -585,9 +1090,9 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:date1904 val="false"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -600,11 +1105,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -629,7 +1134,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="false"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -637,39 +1142,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="false"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="false"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Actual Size</c:v>
+            <c:strRef>
+              <c:f>"Actual Size"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -680,7 +1173,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="false"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -690,13 +1183,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -708,20 +1201,20 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="true"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
+                <c15:showLeaderLines val="true"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -760,10 +1253,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,7 +1266,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Cached Size</c:v>
+            <c:strRef>
+              <c:f>"Cached Size"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cached Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -784,7 +1285,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="false"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -794,13 +1295,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -812,20 +1313,20 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="true"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
+                <c15:showLeaderLines val="true"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -868,12 +1369,12 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
@@ -885,9 +1386,9 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -905,11 +1406,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -921,22 +1422,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2025104592"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2025104592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -952,6 +1452,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -963,11 +1464,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -979,7 +1480,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1985220704"/>
@@ -997,7 +1497,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="false"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1006,11 +1506,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1022,13 +1522,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:showDLblsOverMax val="false"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1050,9 +1549,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1239,7 +1737,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -1742,7 +2240,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -2150,28 +2648,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>359277</xdr:colOff>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>8522</xdr:rowOff>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314827</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>170447</xdr:rowOff>
+      <xdr:colOff>313690</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3803015" y="2001520"/>
+        <a:ext cx="5194300" cy="2362200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2194,14 +2692,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160421</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5274310" y="0"/>
+        <a:ext cx="4851400" cy="1760220"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2332,7 +2830,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2353,9 +2851,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2372,7 +2870,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2442,7 +2940,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2468,7 +2966,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2530,139 +3028,131 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1666666666667" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>12</v>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3/B2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>C3/C2</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>